--- a/Atividade_01.xlsx
+++ b/Atividade_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.baumann\Documents\2025\Técnico de Informática\git\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E25A8B0C-45E5-48FD-A2B9-FB152BA049DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01318124-0EE0-4E23-B1ED-BAA7401FAB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,7 +232,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,8 +305,20 @@
         <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -505,21 +517,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -599,7 +596,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,7 +606,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -643,23 +638,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,7 +879,7 @@
   <dimension ref="A1:J998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -895,17 +892,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -959,8 +956,11 @@
       <c r="G3" s="6">
         <v>44</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="42">
+      <c r="H3" s="6">
+        <f>SUM(B3:G3)</f>
+        <v>264</v>
+      </c>
+      <c r="I3" s="37">
         <f>AVERAGE(B3:G3)</f>
         <v>44</v>
       </c>
@@ -987,9 +987,12 @@
       <c r="G4" s="8">
         <v>190</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="42">
-        <f t="shared" ref="I4:I8" si="0">AVERAGE(B4:G4)</f>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H8" si="0">SUM(B4:G4)</f>
+        <v>1040</v>
+      </c>
+      <c r="I4" s="37">
+        <f t="shared" ref="I4:I8" si="1">AVERAGE(B4:G4)</f>
         <v>173.33333333333334</v>
       </c>
     </row>
@@ -1015,9 +1018,12 @@
       <c r="G5" s="6">
         <v>998</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="42">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
+        <v>5988</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="1"/>
         <v>998</v>
       </c>
     </row>
@@ -1043,9 +1049,12 @@
       <c r="G6" s="8">
         <v>450</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="42">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
@@ -1071,9 +1080,12 @@
       <c r="G7" s="6">
         <v>300</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="42">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
+        <v>1180</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" si="1"/>
         <v>196.66666666666666</v>
       </c>
     </row>
@@ -1081,38 +1093,41 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="35">
         <f>SUM(B3:B7)</f>
         <v>1782</v>
       </c>
-      <c r="C8" s="40">
-        <f t="shared" ref="C8:H8" si="1">SUM(C3:C7)</f>
+      <c r="C8" s="35">
+        <f t="shared" ref="C8:G8" si="2">SUM(C3:C7)</f>
         <v>2112</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="35">
+        <f t="shared" si="2"/>
+        <v>1552</v>
+      </c>
+      <c r="E8" s="35">
+        <f t="shared" si="2"/>
+        <v>1592</v>
+      </c>
+      <c r="F8" s="35">
+        <f t="shared" si="2"/>
+        <v>1852</v>
+      </c>
+      <c r="G8" s="35">
+        <f t="shared" si="2"/>
+        <v>1982</v>
+      </c>
+      <c r="H8" s="42">
+        <f t="shared" si="0"/>
+        <v>10872</v>
+      </c>
+      <c r="I8" s="37">
         <f t="shared" si="1"/>
-        <v>1552</v>
-      </c>
-      <c r="E8" s="40">
-        <f t="shared" si="1"/>
-        <v>1592</v>
-      </c>
-      <c r="F8" s="40">
-        <f t="shared" si="1"/>
-        <v>1852</v>
-      </c>
-      <c r="G8" s="40">
-        <f t="shared" si="1"/>
-        <v>1982</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="42">
-        <f t="shared" si="0"/>
         <v>1812</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1135,108 +1150,126 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>3000</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>2500</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>3500</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>2000</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>2250</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>2800</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="15">
+        <f>B11-B8</f>
+        <v>1218</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" ref="C13:G13" si="3">C11-C8</f>
+        <v>388</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="3"/>
+        <v>1948</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="3"/>
+        <v>398</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="3"/>
+        <v>818</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2235,2076 +2268,2076 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>4.3</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="23">
         <v>5.7</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="23">
         <v>6.2</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <v>3.1</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="24">
         <v>13</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>7.5</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>6</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <v>7.8</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <v>5</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <v>18</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="23">
         <v>7.8</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <v>8.5</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <v>20</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>7.2</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>7.6</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <v>8</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <v>27</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>5.3</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>5</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>4.2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <v>29</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="31"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="31"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="31"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
     </row>
     <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="31"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="31"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
     </row>
     <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="31"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
     </row>
     <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
     </row>
     <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="31"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="31"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
     </row>
     <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="31"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
     </row>
     <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="29"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="31"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="31"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="31"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29"/>
     </row>
     <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29"/>
     </row>
     <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="31"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
     </row>
     <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
     </row>
     <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="31"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
     </row>
     <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="31"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
     </row>
     <row r="66" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
     </row>
     <row r="67" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="31"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="29"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="31"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29"/>
     </row>
     <row r="69" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="31"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="29"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="31"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29"/>
     </row>
     <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="31"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29"/>
     </row>
     <row r="72" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="31"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="29"/>
     </row>
     <row r="73" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="31"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29"/>
     </row>
     <row r="74" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="31"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="29"/>
     </row>
     <row r="75" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="31"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="29"/>
     </row>
     <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="31"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="29"/>
     </row>
     <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="31"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29"/>
     </row>
     <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="31"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29"/>
     </row>
     <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="31"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
     </row>
     <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="31"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="29"/>
     </row>
     <row r="81" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="31"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="29"/>
     </row>
     <row r="82" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="31"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="29"/>
     </row>
     <row r="83" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="31"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="29"/>
     </row>
     <row r="84" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="31"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="29"/>
     </row>
     <row r="85" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="31"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="29"/>
     </row>
     <row r="86" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="31"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="29"/>
     </row>
     <row r="87" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="31"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="31"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="29"/>
     </row>
     <row r="89" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="31"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="29"/>
     </row>
     <row r="90" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="31"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="29"/>
     </row>
     <row r="91" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="31"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="29"/>
     </row>
     <row r="92" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="31"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="29"/>
     </row>
     <row r="93" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="31"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="29"/>
     </row>
     <row r="94" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="31"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="29"/>
     </row>
     <row r="95" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="31"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="29"/>
     </row>
     <row r="96" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="31"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="29"/>
     </row>
     <row r="97" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="31"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="29"/>
     </row>
     <row r="98" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="31"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="29"/>
     </row>
     <row r="99" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="31"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="29"/>
     </row>
     <row r="100" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="31"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="29"/>
     </row>
     <row r="101" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="31"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="29"/>
     </row>
     <row r="102" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="31"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="29"/>
     </row>
     <row r="103" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="31"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="29"/>
     </row>
     <row r="104" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="31"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="29"/>
     </row>
     <row r="105" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="31"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="29"/>
     </row>
     <row r="106" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="31"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="29"/>
     </row>
     <row r="107" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="31"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="29"/>
     </row>
     <row r="108" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="31"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="29"/>
     </row>
     <row r="109" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="31"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="29"/>
     </row>
     <row r="110" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="31"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="29"/>
     </row>
     <row r="111" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="31"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="29"/>
     </row>
     <row r="112" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="31"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="29"/>
     </row>
     <row r="113" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="31"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="29"/>
     </row>
     <row r="114" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="31"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="29"/>
     </row>
     <row r="115" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="31"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="29"/>
     </row>
     <row r="116" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="31"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="29"/>
     </row>
     <row r="117" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="31"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="29"/>
     </row>
     <row r="118" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="31"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="29"/>
     </row>
     <row r="119" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="31"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="29"/>
     </row>
     <row r="120" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="31"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="29"/>
     </row>
     <row r="121" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="31"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="29"/>
     </row>
     <row r="122" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="31"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="29"/>
     </row>
     <row r="123" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="31"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="29"/>
     </row>
     <row r="124" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="31"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="29"/>
     </row>
     <row r="125" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="31"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="29"/>
     </row>
     <row r="126" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="31"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="29"/>
     </row>
     <row r="127" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="31"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="29"/>
     </row>
     <row r="128" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="31"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="29"/>
     </row>
     <row r="129" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="30"/>
-      <c r="H129" s="31"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="29"/>
     </row>
     <row r="130" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="30"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="31"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="29"/>
     </row>
     <row r="131" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="31"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="31"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="29"/>
     </row>
     <row r="132" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="31"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="31"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="29"/>
     </row>
     <row r="133" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="31"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="29"/>
     </row>
     <row r="134" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="31"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="31"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="29"/>
     </row>
     <row r="135" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="31"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="29"/>
     </row>
     <row r="136" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="31"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="29"/>
     </row>
     <row r="137" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="31"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="29"/>
     </row>
     <row r="138" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="31"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="29"/>
     </row>
     <row r="139" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="30"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="31"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="29"/>
     </row>
     <row r="140" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="31"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="31"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="29"/>
     </row>
     <row r="141" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="30"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="31"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="29"/>
     </row>
     <row r="142" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="31"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="29"/>
     </row>
     <row r="143" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="31"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="29"/>
     </row>
     <row r="144" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="31"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="29"/>
     </row>
     <row r="145" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="31"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="29"/>
     </row>
     <row r="146" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="31"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="29"/>
     </row>
     <row r="147" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="30"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="31"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="29"/>
     </row>
     <row r="148" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="31"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="29"/>
     </row>
     <row r="149" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="30"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="31"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="29"/>
     </row>
     <row r="150" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="30"/>
-      <c r="F150" s="31"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="31"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="29"/>
     </row>
     <row r="151" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="31"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="29"/>
     </row>
     <row r="152" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="31"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="29"/>
     </row>
     <row r="153" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="30"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="31"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="31"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="29"/>
     </row>
     <row r="154" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="30"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="31"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="29"/>
     </row>
     <row r="155" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="30"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="31"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="29"/>
     </row>
     <row r="156" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="30"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
-      <c r="F156" s="31"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="31"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="29"/>
     </row>
     <row r="157" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="31"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="31"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="29"/>
     </row>
     <row r="158" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="31"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="31"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="28"/>
+      <c r="H158" s="29"/>
     </row>
     <row r="159" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="30"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="31"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="31"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="28"/>
+      <c r="H159" s="29"/>
     </row>
     <row r="160" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="31"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="31"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="29"/>
     </row>
     <row r="161" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="30"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="31"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="29"/>
     </row>
     <row r="162" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="31"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="31"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="29"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="29"/>
     </row>
     <row r="163" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="31"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="31"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="29"/>
     </row>
     <row r="164" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="30"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
-      <c r="E164" s="30"/>
-      <c r="F164" s="31"/>
-      <c r="G164" s="30"/>
-      <c r="H164" s="31"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="28"/>
+      <c r="H164" s="29"/>
     </row>
     <row r="165" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="30"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="31"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="28"/>
+      <c r="H165" s="29"/>
     </row>
     <row r="166" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="30"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="30"/>
-      <c r="E166" s="30"/>
-      <c r="F166" s="31"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="31"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="28"/>
+      <c r="H166" s="29"/>
     </row>
     <row r="167" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="30"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
-      <c r="E167" s="30"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="31"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="28"/>
+      <c r="H167" s="29"/>
     </row>
     <row r="168" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="31"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="29"/>
     </row>
     <row r="169" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="31"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="28"/>
+      <c r="H169" s="29"/>
     </row>
     <row r="170" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="30"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="31"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="28"/>
+      <c r="H170" s="29"/>
     </row>
     <row r="171" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="31"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="29"/>
     </row>
     <row r="172" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="31"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="29"/>
     </row>
     <row r="173" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="30"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
-      <c r="E173" s="30"/>
-      <c r="F173" s="31"/>
-      <c r="G173" s="30"/>
-      <c r="H173" s="31"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="28"/>
+      <c r="H173" s="29"/>
     </row>
     <row r="174" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="30"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
-      <c r="E174" s="30"/>
-      <c r="F174" s="31"/>
-      <c r="G174" s="30"/>
-      <c r="H174" s="31"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="29"/>
+      <c r="G174" s="28"/>
+      <c r="H174" s="29"/>
     </row>
     <row r="175" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="30"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
-      <c r="E175" s="30"/>
-      <c r="F175" s="31"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="31"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="28"/>
+      <c r="H175" s="29"/>
     </row>
     <row r="176" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="30"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
-      <c r="E176" s="30"/>
-      <c r="F176" s="31"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="31"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="29"/>
+      <c r="G176" s="28"/>
+      <c r="H176" s="29"/>
     </row>
     <row r="177" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="30"/>
-      <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="30"/>
-      <c r="F177" s="31"/>
-      <c r="G177" s="30"/>
-      <c r="H177" s="31"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="28"/>
+      <c r="H177" s="29"/>
     </row>
     <row r="178" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="31"/>
-      <c r="G178" s="30"/>
-      <c r="H178" s="31"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="29"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="29"/>
     </row>
     <row r="179" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="30"/>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
-      <c r="F179" s="31"/>
-      <c r="G179" s="30"/>
-      <c r="H179" s="31"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="29"/>
+      <c r="G179" s="28"/>
+      <c r="H179" s="29"/>
     </row>
     <row r="180" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="30"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="30"/>
-      <c r="E180" s="30"/>
-      <c r="F180" s="31"/>
-      <c r="G180" s="30"/>
-      <c r="H180" s="31"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="29"/>
+      <c r="G180" s="28"/>
+      <c r="H180" s="29"/>
     </row>
     <row r="181" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="30"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
-      <c r="E181" s="30"/>
-      <c r="F181" s="31"/>
-      <c r="G181" s="30"/>
-      <c r="H181" s="31"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="29"/>
+      <c r="G181" s="28"/>
+      <c r="H181" s="29"/>
     </row>
     <row r="182" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="30"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
-      <c r="E182" s="30"/>
-      <c r="F182" s="31"/>
-      <c r="G182" s="30"/>
-      <c r="H182" s="31"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="29"/>
+      <c r="G182" s="28"/>
+      <c r="H182" s="29"/>
     </row>
     <row r="183" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="30"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="30"/>
-      <c r="E183" s="30"/>
-      <c r="F183" s="31"/>
-      <c r="G183" s="30"/>
-      <c r="H183" s="31"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="29"/>
+      <c r="G183" s="28"/>
+      <c r="H183" s="29"/>
     </row>
     <row r="184" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="30"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="30"/>
-      <c r="E184" s="30"/>
-      <c r="F184" s="31"/>
-      <c r="G184" s="30"/>
-      <c r="H184" s="31"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="29"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="29"/>
     </row>
     <row r="185" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="30"/>
-      <c r="C185" s="30"/>
-      <c r="D185" s="30"/>
-      <c r="E185" s="30"/>
-      <c r="F185" s="31"/>
-      <c r="G185" s="30"/>
-      <c r="H185" s="31"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="29"/>
+      <c r="G185" s="28"/>
+      <c r="H185" s="29"/>
     </row>
     <row r="186" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="30"/>
-      <c r="C186" s="30"/>
-      <c r="D186" s="30"/>
-      <c r="E186" s="30"/>
-      <c r="F186" s="31"/>
-      <c r="G186" s="30"/>
-      <c r="H186" s="31"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="29"/>
+      <c r="G186" s="28"/>
+      <c r="H186" s="29"/>
     </row>
     <row r="187" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="30"/>
-      <c r="C187" s="30"/>
-      <c r="D187" s="30"/>
-      <c r="E187" s="30"/>
-      <c r="F187" s="31"/>
-      <c r="G187" s="30"/>
-      <c r="H187" s="31"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="29"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="29"/>
     </row>
     <row r="188" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="30"/>
-      <c r="C188" s="30"/>
-      <c r="D188" s="30"/>
-      <c r="E188" s="30"/>
-      <c r="F188" s="31"/>
-      <c r="G188" s="30"/>
-      <c r="H188" s="31"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="29"/>
+      <c r="G188" s="28"/>
+      <c r="H188" s="29"/>
     </row>
     <row r="189" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="30"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="30"/>
-      <c r="E189" s="30"/>
-      <c r="F189" s="31"/>
-      <c r="G189" s="30"/>
-      <c r="H189" s="31"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="29"/>
+      <c r="G189" s="28"/>
+      <c r="H189" s="29"/>
     </row>
     <row r="190" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="30"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="30"/>
-      <c r="E190" s="30"/>
-      <c r="F190" s="31"/>
-      <c r="G190" s="30"/>
-      <c r="H190" s="31"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="29"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="29"/>
     </row>
     <row r="191" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="30"/>
-      <c r="C191" s="30"/>
-      <c r="D191" s="30"/>
-      <c r="E191" s="30"/>
-      <c r="F191" s="31"/>
-      <c r="G191" s="30"/>
-      <c r="H191" s="31"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="29"/>
+      <c r="G191" s="28"/>
+      <c r="H191" s="29"/>
     </row>
     <row r="192" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="30"/>
-      <c r="C192" s="30"/>
-      <c r="D192" s="30"/>
-      <c r="E192" s="30"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="30"/>
-      <c r="H192" s="31"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="29"/>
+      <c r="G192" s="28"/>
+      <c r="H192" s="29"/>
     </row>
     <row r="193" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="30"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="30"/>
-      <c r="F193" s="31"/>
-      <c r="G193" s="30"/>
-      <c r="H193" s="31"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="29"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="29"/>
     </row>
     <row r="194" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="30"/>
-      <c r="C194" s="30"/>
-      <c r="D194" s="30"/>
-      <c r="E194" s="30"/>
-      <c r="F194" s="31"/>
-      <c r="G194" s="30"/>
-      <c r="H194" s="31"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="29"/>
+      <c r="G194" s="28"/>
+      <c r="H194" s="29"/>
     </row>
     <row r="195" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="30"/>
-      <c r="C195" s="30"/>
-      <c r="D195" s="30"/>
-      <c r="E195" s="30"/>
-      <c r="F195" s="31"/>
-      <c r="G195" s="30"/>
-      <c r="H195" s="31"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="29"/>
+      <c r="G195" s="28"/>
+      <c r="H195" s="29"/>
     </row>
     <row r="196" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="30"/>
-      <c r="C196" s="30"/>
-      <c r="D196" s="30"/>
-      <c r="E196" s="30"/>
-      <c r="F196" s="31"/>
-      <c r="G196" s="30"/>
-      <c r="H196" s="31"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="29"/>
+      <c r="G196" s="28"/>
+      <c r="H196" s="29"/>
     </row>
     <row r="197" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="30"/>
-      <c r="C197" s="30"/>
-      <c r="D197" s="30"/>
-      <c r="E197" s="30"/>
-      <c r="F197" s="31"/>
-      <c r="G197" s="30"/>
-      <c r="H197" s="31"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="29"/>
+      <c r="G197" s="28"/>
+      <c r="H197" s="29"/>
     </row>
     <row r="198" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="30"/>
-      <c r="C198" s="30"/>
-      <c r="D198" s="30"/>
-      <c r="E198" s="30"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="30"/>
-      <c r="H198" s="31"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="28"/>
+      <c r="F198" s="29"/>
+      <c r="G198" s="28"/>
+      <c r="H198" s="29"/>
     </row>
     <row r="199" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="30"/>
-      <c r="C199" s="30"/>
-      <c r="D199" s="30"/>
-      <c r="E199" s="30"/>
-      <c r="F199" s="31"/>
-      <c r="G199" s="30"/>
-      <c r="H199" s="31"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="29"/>
+      <c r="G199" s="28"/>
+      <c r="H199" s="29"/>
     </row>
     <row r="200" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="30"/>
-      <c r="C200" s="30"/>
-      <c r="D200" s="30"/>
-      <c r="E200" s="30"/>
-      <c r="F200" s="31"/>
-      <c r="G200" s="30"/>
-      <c r="H200" s="31"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="29"/>
+      <c r="G200" s="28"/>
+      <c r="H200" s="29"/>
     </row>
     <row r="201" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="30"/>
-      <c r="C201" s="30"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="30"/>
-      <c r="F201" s="31"/>
-      <c r="G201" s="30"/>
-      <c r="H201" s="31"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28"/>
+      <c r="F201" s="29"/>
+      <c r="G201" s="28"/>
+      <c r="H201" s="29"/>
     </row>
     <row r="202" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="30"/>
-      <c r="C202" s="30"/>
-      <c r="D202" s="30"/>
-      <c r="E202" s="30"/>
-      <c r="F202" s="31"/>
-      <c r="G202" s="30"/>
-      <c r="H202" s="31"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="28"/>
+      <c r="D202" s="28"/>
+      <c r="E202" s="28"/>
+      <c r="F202" s="29"/>
+      <c r="G202" s="28"/>
+      <c r="H202" s="29"/>
     </row>
     <row r="203" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="30"/>
-      <c r="C203" s="30"/>
-      <c r="D203" s="30"/>
-      <c r="E203" s="30"/>
-      <c r="F203" s="31"/>
-      <c r="G203" s="30"/>
-      <c r="H203" s="31"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="29"/>
+      <c r="G203" s="28"/>
+      <c r="H203" s="29"/>
     </row>
     <row r="204" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="30"/>
-      <c r="C204" s="30"/>
-      <c r="D204" s="30"/>
-      <c r="E204" s="30"/>
-      <c r="F204" s="31"/>
-      <c r="G204" s="30"/>
-      <c r="H204" s="31"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="29"/>
+      <c r="G204" s="28"/>
+      <c r="H204" s="29"/>
     </row>
     <row r="205" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="30"/>
-      <c r="C205" s="30"/>
-      <c r="D205" s="30"/>
-      <c r="E205" s="30"/>
-      <c r="F205" s="31"/>
-      <c r="G205" s="30"/>
-      <c r="H205" s="31"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="29"/>
+      <c r="G205" s="28"/>
+      <c r="H205" s="29"/>
     </row>
     <row r="206" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="30"/>
-      <c r="C206" s="30"/>
-      <c r="D206" s="30"/>
-      <c r="E206" s="30"/>
-      <c r="F206" s="31"/>
-      <c r="G206" s="30"/>
-      <c r="H206" s="31"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="28"/>
+      <c r="D206" s="28"/>
+      <c r="E206" s="28"/>
+      <c r="F206" s="29"/>
+      <c r="G206" s="28"/>
+      <c r="H206" s="29"/>
     </row>
     <row r="207" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="30"/>
-      <c r="C207" s="30"/>
-      <c r="D207" s="30"/>
-      <c r="E207" s="30"/>
-      <c r="F207" s="31"/>
-      <c r="G207" s="30"/>
-      <c r="H207" s="31"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="28"/>
+      <c r="E207" s="28"/>
+      <c r="F207" s="29"/>
+      <c r="G207" s="28"/>
+      <c r="H207" s="29"/>
     </row>
     <row r="208" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="30"/>
-      <c r="C208" s="30"/>
-      <c r="D208" s="30"/>
-      <c r="E208" s="30"/>
-      <c r="F208" s="31"/>
-      <c r="G208" s="30"/>
-      <c r="H208" s="31"/>
+      <c r="B208" s="28"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="28"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="29"/>
+      <c r="G208" s="28"/>
+      <c r="H208" s="29"/>
     </row>
     <row r="209" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="30"/>
-      <c r="C209" s="30"/>
-      <c r="D209" s="30"/>
-      <c r="E209" s="30"/>
-      <c r="F209" s="31"/>
-      <c r="G209" s="30"/>
-      <c r="H209" s="31"/>
+      <c r="B209" s="28"/>
+      <c r="C209" s="28"/>
+      <c r="D209" s="28"/>
+      <c r="E209" s="28"/>
+      <c r="F209" s="29"/>
+      <c r="G209" s="28"/>
+      <c r="H209" s="29"/>
     </row>
     <row r="210" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="30"/>
-      <c r="C210" s="30"/>
-      <c r="D210" s="30"/>
-      <c r="E210" s="30"/>
-      <c r="F210" s="31"/>
-      <c r="G210" s="30"/>
-      <c r="H210" s="31"/>
+      <c r="B210" s="28"/>
+      <c r="C210" s="28"/>
+      <c r="D210" s="28"/>
+      <c r="E210" s="28"/>
+      <c r="F210" s="29"/>
+      <c r="G210" s="28"/>
+      <c r="H210" s="29"/>
     </row>
     <row r="211" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="30"/>
-      <c r="C211" s="30"/>
-      <c r="D211" s="30"/>
-      <c r="E211" s="30"/>
-      <c r="F211" s="31"/>
-      <c r="G211" s="30"/>
-      <c r="H211" s="31"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="29"/>
+      <c r="G211" s="28"/>
+      <c r="H211" s="29"/>
     </row>
     <row r="212" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="30"/>
-      <c r="C212" s="30"/>
-      <c r="D212" s="30"/>
-      <c r="E212" s="30"/>
-      <c r="F212" s="31"/>
-      <c r="G212" s="30"/>
-      <c r="H212" s="31"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="28"/>
+      <c r="F212" s="29"/>
+      <c r="G212" s="28"/>
+      <c r="H212" s="29"/>
     </row>
     <row r="213" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="30"/>
-      <c r="C213" s="30"/>
-      <c r="D213" s="30"/>
-      <c r="E213" s="30"/>
-      <c r="F213" s="31"/>
-      <c r="G213" s="30"/>
-      <c r="H213" s="31"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="28"/>
+      <c r="D213" s="28"/>
+      <c r="E213" s="28"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="28"/>
+      <c r="H213" s="29"/>
     </row>
     <row r="214" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="30"/>
-      <c r="C214" s="30"/>
-      <c r="D214" s="30"/>
-      <c r="E214" s="30"/>
-      <c r="F214" s="31"/>
-      <c r="G214" s="30"/>
-      <c r="H214" s="31"/>
+      <c r="B214" s="28"/>
+      <c r="C214" s="28"/>
+      <c r="D214" s="28"/>
+      <c r="E214" s="28"/>
+      <c r="F214" s="29"/>
+      <c r="G214" s="28"/>
+      <c r="H214" s="29"/>
     </row>
     <row r="215" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="30"/>
-      <c r="C215" s="30"/>
-      <c r="D215" s="30"/>
-      <c r="E215" s="30"/>
-      <c r="F215" s="31"/>
-      <c r="G215" s="30"/>
-      <c r="H215" s="31"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="28"/>
+      <c r="E215" s="28"/>
+      <c r="F215" s="29"/>
+      <c r="G215" s="28"/>
+      <c r="H215" s="29"/>
     </row>
     <row r="216" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="30"/>
-      <c r="C216" s="30"/>
-      <c r="D216" s="30"/>
-      <c r="E216" s="30"/>
-      <c r="F216" s="31"/>
-      <c r="G216" s="30"/>
-      <c r="H216" s="31"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="28"/>
+      <c r="D216" s="28"/>
+      <c r="E216" s="28"/>
+      <c r="F216" s="29"/>
+      <c r="G216" s="28"/>
+      <c r="H216" s="29"/>
     </row>
     <row r="217" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="30"/>
-      <c r="C217" s="30"/>
-      <c r="D217" s="30"/>
-      <c r="E217" s="30"/>
-      <c r="F217" s="31"/>
-      <c r="G217" s="30"/>
-      <c r="H217" s="31"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="28"/>
+      <c r="D217" s="28"/>
+      <c r="E217" s="28"/>
+      <c r="F217" s="29"/>
+      <c r="G217" s="28"/>
+      <c r="H217" s="29"/>
     </row>
     <row r="218" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="30"/>
-      <c r="C218" s="30"/>
-      <c r="D218" s="30"/>
-      <c r="E218" s="30"/>
-      <c r="F218" s="31"/>
-      <c r="G218" s="30"/>
-      <c r="H218" s="31"/>
+      <c r="B218" s="28"/>
+      <c r="C218" s="28"/>
+      <c r="D218" s="28"/>
+      <c r="E218" s="28"/>
+      <c r="F218" s="29"/>
+      <c r="G218" s="28"/>
+      <c r="H218" s="29"/>
     </row>
     <row r="219" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="30"/>
-      <c r="C219" s="30"/>
-      <c r="D219" s="30"/>
-      <c r="E219" s="30"/>
-      <c r="F219" s="31"/>
-      <c r="G219" s="30"/>
-      <c r="H219" s="31"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="28"/>
+      <c r="D219" s="28"/>
+      <c r="E219" s="28"/>
+      <c r="F219" s="29"/>
+      <c r="G219" s="28"/>
+      <c r="H219" s="29"/>
     </row>
     <row r="220" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="30"/>
-      <c r="C220" s="30"/>
-      <c r="D220" s="30"/>
-      <c r="E220" s="30"/>
-      <c r="F220" s="31"/>
-      <c r="G220" s="30"/>
-      <c r="H220" s="31"/>
+      <c r="B220" s="28"/>
+      <c r="C220" s="28"/>
+      <c r="D220" s="28"/>
+      <c r="E220" s="28"/>
+      <c r="F220" s="29"/>
+      <c r="G220" s="28"/>
+      <c r="H220" s="29"/>
     </row>
     <row r="221" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="222" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Atividade_01.xlsx
+++ b/Atividade_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.baumann\Documents\2025\Técnico de Informática\git\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01318124-0EE0-4E23-B1ED-BAA7401FAB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB8E4D-7D30-4CBE-A093-E225AD5207B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Funções Básicas" sheetId="1" r:id="rId1"/>
     <sheet name="SE" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="despesas">'Funções Básicas'!$B$3:$G$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -175,11 +178,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +235,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +327,18 @@
         <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -572,10 +594,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -605,7 +628,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -650,15 +672,20 @@
     <xf numFmtId="164" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -878,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -886,23 +913,23 @@
   <cols>
     <col min="1" max="1" width="47.59765625" customWidth="1"/>
     <col min="2" max="2" width="13.59765625" customWidth="1"/>
-    <col min="3" max="6" width="10.5" customWidth="1"/>
+    <col min="3" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13.59765625" customWidth="1"/>
     <col min="10" max="10" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -960,7 +987,7 @@
         <f>SUM(B3:G3)</f>
         <v>264</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="36">
         <f>AVERAGE(B3:G3)</f>
         <v>44</v>
       </c>
@@ -991,7 +1018,7 @@
         <f t="shared" ref="H4:H8" si="0">SUM(B4:G4)</f>
         <v>1040</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <f t="shared" ref="I4:I8" si="1">AVERAGE(B4:G4)</f>
         <v>173.33333333333334</v>
       </c>
@@ -1022,7 +1049,7 @@
         <f t="shared" si="0"/>
         <v>5988</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <f t="shared" si="1"/>
         <v>998</v>
       </c>
@@ -1053,7 +1080,7 @@
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
@@ -1084,7 +1111,7 @@
         <f t="shared" si="0"/>
         <v>1180</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <f t="shared" si="1"/>
         <v>196.66666666666666</v>
       </c>
@@ -1093,35 +1120,35 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="34">
         <f>SUM(B3:B7)</f>
         <v>1782</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <f t="shared" ref="C8:G8" si="2">SUM(C3:C7)</f>
         <v>2112</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <f t="shared" si="2"/>
         <v>1552</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <f t="shared" si="2"/>
         <v>1592</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <f t="shared" si="2"/>
         <v>1852</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <f t="shared" si="2"/>
         <v>1982</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="38">
         <f t="shared" si="0"/>
         <v>10872</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <f t="shared" si="1"/>
         <v>1812</v>
       </c>
@@ -1176,100 +1203,115 @@
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="43">
         <f>B11-B8</f>
         <v>1218</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="43">
         <f t="shared" ref="C13:G13" si="3">C11-C8</f>
         <v>388</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="43">
         <f t="shared" si="3"/>
         <v>1948</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="43">
         <f t="shared" si="3"/>
         <v>408</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="43">
         <f t="shared" si="3"/>
         <v>398</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="43">
         <f t="shared" si="3"/>
         <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="6">
+        <f>LARGE(despesas,1)</f>
+        <v>998</v>
+      </c>
+      <c r="C19" s="44">
+        <f>MAX(despesas)</f>
+        <v>998</v>
+      </c>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="45">
+        <f>SMALL(despesas,1)</f>
+        <v>44</v>
+      </c>
+      <c r="C20" s="44">
+        <f>MIN(despesas)</f>
+        <v>44</v>
+      </c>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="45">
+        <f>LARGE(B13:G13,3)</f>
+        <v>818</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2268,2076 +2310,2076 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>4.3</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>5.7</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>6.2</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>3.1</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>13</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>7.5</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>6</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>7.8</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>5</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>18</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>7.8</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>8.5</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>20</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>7.2</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>7.6</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>8</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>27</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>5.3</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>5</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>4.2</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>29</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
     </row>
     <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
     </row>
     <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
     </row>
     <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
     </row>
     <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
     </row>
     <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
     </row>
     <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="29"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
     </row>
     <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
     </row>
     <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
     </row>
     <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="29"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="29"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="29"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="29"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
     </row>
     <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="29"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
     </row>
     <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="29"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
     </row>
     <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="29"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
     </row>
     <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="29"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
     </row>
     <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
     </row>
     <row r="66" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="29"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
     </row>
     <row r="67" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="29"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="29"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
     </row>
     <row r="69" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="29"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="29"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
     </row>
     <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="29"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
     </row>
     <row r="72" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
     </row>
     <row r="73" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
     </row>
     <row r="74" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
     </row>
     <row r="75" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="29"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
     </row>
     <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="29"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
     </row>
     <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
     </row>
     <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="29"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
     </row>
     <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="29"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
     </row>
     <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="29"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
     </row>
     <row r="81" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="29"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
     </row>
     <row r="82" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="29"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="28"/>
     </row>
     <row r="83" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="29"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="28"/>
     </row>
     <row r="84" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="29"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="28"/>
     </row>
     <row r="85" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="29"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="28"/>
     </row>
     <row r="86" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="29"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="28"/>
     </row>
     <row r="87" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="29"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
     </row>
     <row r="88" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="29"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
     </row>
     <row r="89" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="29"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="28"/>
     </row>
     <row r="90" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="29"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
     </row>
     <row r="91" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="29"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="28"/>
     </row>
     <row r="92" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="29"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="28"/>
     </row>
     <row r="93" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="29"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="28"/>
     </row>
     <row r="94" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="29"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="28"/>
     </row>
     <row r="95" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="29"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="28"/>
     </row>
     <row r="96" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="29"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="28"/>
     </row>
     <row r="97" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="29"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="28"/>
     </row>
     <row r="98" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="29"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="28"/>
     </row>
     <row r="99" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="29"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="28"/>
     </row>
     <row r="100" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="29"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="28"/>
     </row>
     <row r="101" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="29"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="28"/>
     </row>
     <row r="102" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="29"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="28"/>
     </row>
     <row r="103" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="29"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="28"/>
     </row>
     <row r="104" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="29"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="28"/>
     </row>
     <row r="105" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="29"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="28"/>
     </row>
     <row r="106" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="29"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="28"/>
     </row>
     <row r="107" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="29"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="28"/>
     </row>
     <row r="108" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="29"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="28"/>
     </row>
     <row r="109" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="29"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="28"/>
     </row>
     <row r="110" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="29"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="28"/>
     </row>
     <row r="111" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="29"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="28"/>
     </row>
     <row r="112" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="29"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="28"/>
     </row>
     <row r="113" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="29"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="28"/>
     </row>
     <row r="114" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="29"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="28"/>
     </row>
     <row r="115" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="29"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="28"/>
     </row>
     <row r="116" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="29"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="28"/>
     </row>
     <row r="117" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="29"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="28"/>
     </row>
     <row r="118" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="29"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="28"/>
     </row>
     <row r="119" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="29"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="28"/>
     </row>
     <row r="120" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="29"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="28"/>
     </row>
     <row r="121" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="29"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="28"/>
     </row>
     <row r="122" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="29"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="28"/>
     </row>
     <row r="123" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="29"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="28"/>
     </row>
     <row r="124" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="29"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="28"/>
     </row>
     <row r="125" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="29"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="28"/>
     </row>
     <row r="126" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="29"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="28"/>
     </row>
     <row r="127" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="29"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="28"/>
     </row>
     <row r="128" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="29"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="28"/>
     </row>
     <row r="129" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="29"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="28"/>
     </row>
     <row r="130" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="29"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="28"/>
     </row>
     <row r="131" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="29"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="28"/>
     </row>
     <row r="132" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="29"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="28"/>
     </row>
     <row r="133" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="29"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="28"/>
     </row>
     <row r="134" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="29"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="28"/>
     </row>
     <row r="135" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="29"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="28"/>
     </row>
     <row r="136" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="29"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="28"/>
     </row>
     <row r="137" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="29"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="28"/>
     </row>
     <row r="138" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="29"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="28"/>
     </row>
     <row r="139" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="29"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="28"/>
     </row>
     <row r="140" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="29"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="28"/>
     </row>
     <row r="141" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="29"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="28"/>
     </row>
     <row r="142" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="29"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="28"/>
     </row>
     <row r="143" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="29"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="28"/>
     </row>
     <row r="144" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="29"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="28"/>
     </row>
     <row r="145" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="28"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="29"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="28"/>
     </row>
     <row r="146" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="29"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="28"/>
     </row>
     <row r="147" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="29"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="28"/>
     </row>
     <row r="148" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="29"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="28"/>
     </row>
     <row r="149" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="29"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="28"/>
     </row>
     <row r="150" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="29"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="28"/>
     </row>
     <row r="151" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="28"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="28"/>
-      <c r="H151" s="29"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="28"/>
     </row>
     <row r="152" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="28"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="29"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="28"/>
     </row>
     <row r="153" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="28"/>
-      <c r="H153" s="29"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="28"/>
     </row>
     <row r="154" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="28"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="28"/>
-      <c r="H154" s="29"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="28"/>
     </row>
     <row r="155" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="28"/>
-      <c r="H155" s="29"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="28"/>
     </row>
     <row r="156" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="28"/>
-      <c r="H156" s="29"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="28"/>
     </row>
     <row r="157" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="28"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="29"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="28"/>
     </row>
     <row r="158" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="28"/>
-      <c r="H158" s="29"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="28"/>
     </row>
     <row r="159" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="28"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="28"/>
-      <c r="H159" s="29"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="28"/>
     </row>
     <row r="160" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="28"/>
-      <c r="H160" s="29"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="28"/>
     </row>
     <row r="161" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="28"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="28"/>
-      <c r="H161" s="29"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="28"/>
     </row>
     <row r="162" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="29"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="28"/>
     </row>
     <row r="163" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="28"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
-      <c r="E163" s="28"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="28"/>
-      <c r="H163" s="29"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="28"/>
     </row>
     <row r="164" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="28"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="28"/>
-      <c r="H164" s="29"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="28"/>
     </row>
     <row r="165" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="28"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
-      <c r="E165" s="28"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="29"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="28"/>
     </row>
     <row r="166" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="28"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-      <c r="E166" s="28"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="28"/>
-      <c r="H166" s="29"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="28"/>
     </row>
     <row r="167" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="29"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="28"/>
     </row>
     <row r="168" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="28"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="28"/>
-      <c r="H168" s="29"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="28"/>
     </row>
     <row r="169" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="29"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="28"/>
     </row>
     <row r="170" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="28"/>
-      <c r="H170" s="29"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="28"/>
     </row>
     <row r="171" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="28"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="29"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="28"/>
     </row>
     <row r="172" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="28"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="28"/>
-      <c r="H172" s="29"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="28"/>
     </row>
     <row r="173" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="28"/>
-      <c r="H173" s="29"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="28"/>
     </row>
     <row r="174" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="28"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="29"/>
-      <c r="G174" s="28"/>
-      <c r="H174" s="29"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="28"/>
     </row>
     <row r="175" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="28"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="29"/>
-      <c r="G175" s="28"/>
-      <c r="H175" s="29"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="28"/>
     </row>
     <row r="176" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="28"/>
-      <c r="H176" s="29"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="28"/>
     </row>
     <row r="177" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="28"/>
-      <c r="H177" s="29"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="28"/>
     </row>
     <row r="178" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="28"/>
-      <c r="H178" s="29"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="28"/>
     </row>
     <row r="179" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="28"/>
-      <c r="H179" s="29"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="28"/>
     </row>
     <row r="180" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="29"/>
-      <c r="G180" s="28"/>
-      <c r="H180" s="29"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="28"/>
     </row>
     <row r="181" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="28"/>
-      <c r="H181" s="29"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="28"/>
     </row>
     <row r="182" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="28"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="28"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="29"/>
-      <c r="G182" s="28"/>
-      <c r="H182" s="29"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="28"/>
     </row>
     <row r="183" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="28"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="28"/>
-      <c r="H183" s="29"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="28"/>
     </row>
     <row r="184" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="28"/>
-      <c r="H184" s="29"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="28"/>
     </row>
     <row r="185" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="28"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="28"/>
-      <c r="H185" s="29"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="28"/>
     </row>
     <row r="186" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="28"/>
-      <c r="F186" s="29"/>
-      <c r="G186" s="28"/>
-      <c r="H186" s="29"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="28"/>
     </row>
     <row r="187" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="28"/>
-      <c r="H187" s="29"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="28"/>
     </row>
     <row r="188" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="28"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
-      <c r="E188" s="28"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="28"/>
-      <c r="H188" s="29"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="28"/>
     </row>
     <row r="189" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="28"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
-      <c r="E189" s="28"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="28"/>
-      <c r="H189" s="29"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="28"/>
     </row>
     <row r="190" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="28"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="28"/>
-      <c r="H190" s="29"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="28"/>
     </row>
     <row r="191" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="28"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="28"/>
-      <c r="H191" s="29"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="28"/>
     </row>
     <row r="192" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="28"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
-      <c r="E192" s="28"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="28"/>
-      <c r="H192" s="29"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="28"/>
     </row>
     <row r="193" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="28"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="28"/>
-      <c r="H193" s="29"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="28"/>
     </row>
     <row r="194" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="28"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="28"/>
-      <c r="E194" s="28"/>
-      <c r="F194" s="29"/>
-      <c r="G194" s="28"/>
-      <c r="H194" s="29"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="28"/>
     </row>
     <row r="195" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="28"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="28"/>
-      <c r="H195" s="29"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="28"/>
     </row>
     <row r="196" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="28"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="29"/>
-      <c r="G196" s="28"/>
-      <c r="H196" s="29"/>
+      <c r="B196" s="27"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="28"/>
     </row>
     <row r="197" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-      <c r="E197" s="28"/>
-      <c r="F197" s="29"/>
-      <c r="G197" s="28"/>
-      <c r="H197" s="29"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="28"/>
     </row>
     <row r="198" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="28"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="28"/>
-      <c r="E198" s="28"/>
-      <c r="F198" s="29"/>
-      <c r="G198" s="28"/>
-      <c r="H198" s="29"/>
+      <c r="B198" s="27"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="27"/>
+      <c r="H198" s="28"/>
     </row>
     <row r="199" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="28"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="28"/>
-      <c r="E199" s="28"/>
-      <c r="F199" s="29"/>
-      <c r="G199" s="28"/>
-      <c r="H199" s="29"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="27"/>
+      <c r="H199" s="28"/>
     </row>
     <row r="200" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="28"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="28"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="29"/>
-      <c r="G200" s="28"/>
-      <c r="H200" s="29"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="27"/>
+      <c r="H200" s="28"/>
     </row>
     <row r="201" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="28"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
-      <c r="E201" s="28"/>
-      <c r="F201" s="29"/>
-      <c r="G201" s="28"/>
-      <c r="H201" s="29"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="28"/>
     </row>
     <row r="202" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="28"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="28"/>
-      <c r="E202" s="28"/>
-      <c r="F202" s="29"/>
-      <c r="G202" s="28"/>
-      <c r="H202" s="29"/>
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="27"/>
+      <c r="H202" s="28"/>
     </row>
     <row r="203" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="28"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="28"/>
-      <c r="E203" s="28"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="28"/>
-      <c r="H203" s="29"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="28"/>
     </row>
     <row r="204" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="28"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="28"/>
-      <c r="E204" s="28"/>
-      <c r="F204" s="29"/>
-      <c r="G204" s="28"/>
-      <c r="H204" s="29"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="28"/>
     </row>
     <row r="205" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="28"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
-      <c r="E205" s="28"/>
-      <c r="F205" s="29"/>
-      <c r="G205" s="28"/>
-      <c r="H205" s="29"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="28"/>
     </row>
     <row r="206" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="28"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="28"/>
-      <c r="E206" s="28"/>
-      <c r="F206" s="29"/>
-      <c r="G206" s="28"/>
-      <c r="H206" s="29"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="28"/>
     </row>
     <row r="207" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="28"/>
-      <c r="C207" s="28"/>
-      <c r="D207" s="28"/>
-      <c r="E207" s="28"/>
-      <c r="F207" s="29"/>
-      <c r="G207" s="28"/>
-      <c r="H207" s="29"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="28"/>
     </row>
     <row r="208" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="28"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="28"/>
-      <c r="E208" s="28"/>
-      <c r="F208" s="29"/>
-      <c r="G208" s="28"/>
-      <c r="H208" s="29"/>
+      <c r="B208" s="27"/>
+      <c r="C208" s="27"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="28"/>
     </row>
     <row r="209" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="28"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="28"/>
-      <c r="E209" s="28"/>
-      <c r="F209" s="29"/>
-      <c r="G209" s="28"/>
-      <c r="H209" s="29"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="28"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="28"/>
     </row>
     <row r="210" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="28"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="28"/>
-      <c r="E210" s="28"/>
-      <c r="F210" s="29"/>
-      <c r="G210" s="28"/>
-      <c r="H210" s="29"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="28"/>
     </row>
     <row r="211" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="28"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="28"/>
-      <c r="E211" s="28"/>
-      <c r="F211" s="29"/>
-      <c r="G211" s="28"/>
-      <c r="H211" s="29"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="28"/>
     </row>
     <row r="212" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="28"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="28"/>
-      <c r="E212" s="28"/>
-      <c r="F212" s="29"/>
-      <c r="G212" s="28"/>
-      <c r="H212" s="29"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="28"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="28"/>
     </row>
     <row r="213" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="28"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="28"/>
-      <c r="E213" s="28"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="28"/>
-      <c r="H213" s="29"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="28"/>
     </row>
     <row r="214" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="28"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="28"/>
-      <c r="E214" s="28"/>
-      <c r="F214" s="29"/>
-      <c r="G214" s="28"/>
-      <c r="H214" s="29"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="28"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="28"/>
     </row>
     <row r="215" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="28"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="28"/>
-      <c r="E215" s="28"/>
-      <c r="F215" s="29"/>
-      <c r="G215" s="28"/>
-      <c r="H215" s="29"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="28"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="28"/>
     </row>
     <row r="216" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="28"/>
-      <c r="C216" s="28"/>
-      <c r="D216" s="28"/>
-      <c r="E216" s="28"/>
-      <c r="F216" s="29"/>
-      <c r="G216" s="28"/>
-      <c r="H216" s="29"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="28"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="28"/>
     </row>
     <row r="217" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="28"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="28"/>
-      <c r="E217" s="28"/>
-      <c r="F217" s="29"/>
-      <c r="G217" s="28"/>
-      <c r="H217" s="29"/>
+      <c r="B217" s="27"/>
+      <c r="C217" s="27"/>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="28"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="28"/>
     </row>
     <row r="218" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="28"/>
-      <c r="C218" s="28"/>
-      <c r="D218" s="28"/>
-      <c r="E218" s="28"/>
-      <c r="F218" s="29"/>
-      <c r="G218" s="28"/>
-      <c r="H218" s="29"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+      <c r="F218" s="28"/>
+      <c r="G218" s="27"/>
+      <c r="H218" s="28"/>
     </row>
     <row r="219" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="28"/>
-      <c r="C219" s="28"/>
-      <c r="D219" s="28"/>
-      <c r="E219" s="28"/>
-      <c r="F219" s="29"/>
-      <c r="G219" s="28"/>
-      <c r="H219" s="29"/>
+      <c r="B219" s="27"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
+      <c r="F219" s="28"/>
+      <c r="G219" s="27"/>
+      <c r="H219" s="28"/>
     </row>
     <row r="220" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="28"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="28"/>
-      <c r="E220" s="28"/>
-      <c r="F220" s="29"/>
-      <c r="G220" s="28"/>
-      <c r="H220" s="29"/>
+      <c r="B220" s="27"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="27"/>
+      <c r="E220" s="27"/>
+      <c r="F220" s="28"/>
+      <c r="G220" s="27"/>
+      <c r="H220" s="28"/>
     </row>
     <row r="221" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="222" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Atividade_01.xlsx
+++ b/Atividade_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.baumann\Documents\2025\Técnico de Informática\git\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB8E4D-7D30-4CBE-A093-E225AD5207B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C8439F-E87B-45F5-A999-5D6394F5D8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -674,15 +674,15 @@
     <xf numFmtId="164" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -919,17 +919,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1203,27 +1203,27 @@
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <f>B11-B8</f>
         <v>1218</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="40">
         <f t="shared" ref="C13:G13" si="3">C11-C8</f>
         <v>388</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="40">
         <f t="shared" si="3"/>
         <v>1948</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="40">
         <f t="shared" si="3"/>
         <v>408</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="40">
         <f t="shared" si="3"/>
         <v>398</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="40">
         <f t="shared" si="3"/>
         <v>818</v>
       </c>
@@ -1244,7 +1244,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="16"/>
@@ -1258,7 +1258,7 @@
         <f>LARGE(despesas,1)</f>
         <v>998</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="41">
         <f>MAX(despesas)</f>
         <v>998</v>
       </c>
@@ -1268,11 +1268,11 @@
       <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="42">
         <f>SMALL(despesas,1)</f>
         <v>44</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="41">
         <f>MIN(despesas)</f>
         <v>44</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="42">
         <f>LARGE(B13:G13,3)</f>
         <v>818</v>
       </c>
@@ -1293,7 +1293,10 @@
       <c r="A22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="42">
+        <f>SMALL(B13:G13,2)</f>
+        <v>398</v>
+      </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
     </row>
@@ -1301,7 +1304,10 @@
       <c r="A23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="17">
+        <f>COUNTIF(despesas,"&gt;400")</f>
+        <v>8</v>
+      </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>

--- a/Atividade_01.xlsx
+++ b/Atividade_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.baumann\Documents\2025\Técnico de Informática\git\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C8439F-E87B-45F5-A999-5D6394F5D8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B39D78-5CFE-42F0-B841-06EFEA6ED46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,7 +906,7 @@
   <dimension ref="A1:J998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1315,10 @@
       <c r="A24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="42">
+        <f>SUMIF(despesas,"&gt;400")</f>
+        <v>7038</v>
+      </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
     </row>
